--- a/clients/ThinkVideo/ThinkVideo_20241201_20241212.xlsx
+++ b/clients/ThinkVideo/ThinkVideo_20241201_20241212.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D435"/>
+  <dimension ref="A1:D489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6916,6 +6916,810 @@
       </c>
       <c r="D435" t="inlineStr"/>
     </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>0.0050942</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini-2024-07-18</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>0.005150800000000001</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>0.0050862</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>0.0050794</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>tavily</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini-2024-07-18</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>gpt-4o-2024-08-06</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini-2024-07-18</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>0.0050994</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini-2024-07-18</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>0.0050496</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>0.0051082</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>0.0050386</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>tavily</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini-2024-07-18</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>gpt-4o-2024-08-06</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini-2024-07-18</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>0.0051048</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini-2024-07-18</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>0.0050828</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>0.0051028</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>0.0050696</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>tavily</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini-2024-07-18</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>gpt-4o-2024-08-06</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini-2024-07-18</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>0.0050738</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini-2024-07-18</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>0.0050392</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>0.0050894</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>0.005043</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>tavily</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini-2024-07-18</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>gpt-4o-2024-08-06</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini-2024-07-18</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>0.0050584</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini-2024-07-18</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>0.0050686</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>0.00504</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>0.005053</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>tavily</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini-2024-07-18</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>gpt-4o-2024-08-06</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini-2024-07-18</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>0.0050624</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini-2024-07-18</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>0.0050828</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>0.0050978</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>llama-3.1-sonar-small-128k-online</t>
+        </is>
+      </c>
+      <c r="D485" t="n">
+        <v>0.0050688</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>tavily</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini-2024-07-18</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>gpt-4o-2024-08-06</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" s="2" t="n">
+        <v>45638.57891304918</v>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>gpt-4o-mini-2024-07-18</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
